--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
   <si>
     <t>N/A</t>
   </si>
@@ -137,15 +137,9 @@
     <t>Приложение для управления задачами</t>
   </si>
   <si>
-    <t>Создание проекта</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
     <t>Пустое значение</t>
   </si>
   <si>
@@ -158,12 +152,6 @@
     <t>значительное превышение, например, max+100 символов</t>
   </si>
   <si>
-    <t>1.2.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2.2</t>
-  </si>
-  <si>
     <t>Кол-во символов &gt;max:</t>
   </si>
   <si>
@@ -191,15 +179,6 @@
     <t>Ошибка валидации при попытке сохранения недопустимых значений</t>
   </si>
   <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>1.2.3.1</t>
-  </si>
-  <si>
-    <t>1.2.3.2</t>
-  </si>
-  <si>
     <t>ОК</t>
   </si>
   <si>
@@ -212,37 +191,7 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.2.3.1.1</t>
-  </si>
-  <si>
-    <t>1.2.3.1.2</t>
-  </si>
-  <si>
-    <t>1.2.3.1.3</t>
-  </si>
-  <si>
-    <t>1.2.3.1.4</t>
-  </si>
-  <si>
-    <t>1.2.3.1.5</t>
-  </si>
-  <si>
-    <t>1.2.3.1.6</t>
-  </si>
-  <si>
-    <t>1.2.3.2.1</t>
-  </si>
-  <si>
-    <t>1.2.3.2.3</t>
-  </si>
-  <si>
     <t>Удаление проекта</t>
-  </si>
-  <si>
-    <t>Редактирование проекта</t>
   </si>
   <si>
     <t>Утлик Алиса</t>
@@ -255,51 +204,6 @@
 - Описание</t>
   </si>
   <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>1.2.4.1</t>
-  </si>
-  <si>
-    <t>1.2.4.1.1</t>
-  </si>
-  <si>
-    <t>1.2.4.1.2</t>
-  </si>
-  <si>
-    <t>1.2.4.1.3</t>
-  </si>
-  <si>
-    <t>1.2.4.1.4</t>
-  </si>
-  <si>
-    <t>1.2.4.1.5</t>
-  </si>
-  <si>
-    <t>1.2.4.1.6</t>
-  </si>
-  <si>
-    <t>1.2.4.2</t>
-  </si>
-  <si>
-    <t>1.2.4.2.1</t>
-  </si>
-  <si>
-    <t>1.2.4.2.2</t>
-  </si>
-  <si>
-    <t>1.2.4.2.2.1</t>
-  </si>
-  <si>
-    <t>1.2.4.2.3</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>Обнавление таблицы после создания нового проекта</t>
-  </si>
-  <si>
     <t>1.5.1</t>
   </si>
   <si>
@@ -309,72 +213,21 @@
     <t xml:space="preserve">Отображение  таблицы с количеством записей превышающим область видимости страницы </t>
   </si>
   <si>
-    <t>1.2.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обнавление таблицы </t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
     <t>Отображение таблицы без записей</t>
   </si>
   <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
-    <t>Обновление таблицы после удаления проекта</t>
-  </si>
-  <si>
     <t>Поле "Описание"</t>
   </si>
   <si>
     <t>1.4.1</t>
   </si>
   <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
     <t>1.5.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Возможность удаления проекта из списка </t>
-  </si>
-  <si>
-    <t>Возможность редактирвоания проекта</t>
-  </si>
-  <si>
-    <t>Возможность добаления нового проекта</t>
-  </si>
-  <si>
     <t>Форма список проектов</t>
   </si>
   <si>
-    <t>Обновление записи в таблице после редактирвания проекта</t>
-  </si>
-  <si>
-    <t>1.2.3.3</t>
-  </si>
-  <si>
-    <t>1.2.3.3.1</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2</t>
-  </si>
-  <si>
-    <t>1.2.3.4</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1</t>
-  </si>
-  <si>
-    <t>1.2.4.3</t>
-  </si>
-  <si>
-    <t>1.2.4.3.1</t>
-  </si>
-  <si>
     <t>Уникальность поля</t>
   </si>
   <si>
@@ -384,12 +237,6 @@
     <t>Ошибка при сохранении проекта с уже имеющимся полем "названием"</t>
   </si>
   <si>
-    <t>1.2.4.2.2.2</t>
-  </si>
-  <si>
-    <t>1.2.4.2.2.3</t>
-  </si>
-  <si>
     <t>max кол-во символов (128)</t>
   </si>
   <si>
@@ -402,13 +249,211 @@
     <t>max кол-во символов (1000)</t>
   </si>
   <si>
-    <t>1.2.4.2.7</t>
-  </si>
-  <si>
     <t>попытка переполнения поля, например, 2000 символа</t>
   </si>
   <si>
     <t>min кол-во символов (1)</t>
+  </si>
+  <si>
+    <t>Добавление проекта</t>
+  </si>
+  <si>
+    <t>Редактирование проета</t>
+  </si>
+  <si>
+    <t>Создание/редактирование проекта</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Просмотр формы в  режиме добавления проекта</t>
+  </si>
+  <si>
+    <t>Кнопка "Добавить"</t>
+  </si>
+  <si>
+    <t>Кнопка "Удалить"</t>
+  </si>
+  <si>
+    <t>Кнопка "Изменить"</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.1.1</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>2.3.1.3</t>
+  </si>
+  <si>
+    <t>2.3.1.4</t>
+  </si>
+  <si>
+    <t>2.3.1.5</t>
+  </si>
+  <si>
+    <t>2.3.1.6</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.2.1</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.3.1</t>
+  </si>
+  <si>
+    <t>2.3.3.2</t>
+  </si>
+  <si>
+    <t>2.3.2.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.4.1</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>2.4.1.1</t>
+  </si>
+  <si>
+    <t>2.4.1.2</t>
+  </si>
+  <si>
+    <t>2.4.1.3</t>
+  </si>
+  <si>
+    <t>2.4.1.4</t>
+  </si>
+  <si>
+    <t>2.4.1.5</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>2.4.2.1</t>
+  </si>
+  <si>
+    <t>2.4.2.2</t>
+  </si>
+  <si>
+    <t>2.4.2.2.1</t>
+  </si>
+  <si>
+    <t>2.4.2.2.2</t>
+  </si>
+  <si>
+    <t>2.4.2.2.3</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>2.4.3.1</t>
+  </si>
+  <si>
+    <t>Сохранение проекта</t>
+  </si>
+  <si>
+    <t>Отмена сохранения проекта</t>
+  </si>
+  <si>
+    <t>Кнопка "Сохраненить"</t>
+  </si>
+  <si>
+    <t>Кнопка "Отменить"</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5.1.1</t>
+  </si>
+  <si>
+    <t>2.5.1.2</t>
+  </si>
+  <si>
+    <t>2.5.1.3</t>
+  </si>
+  <si>
+    <t>2.5.1.4</t>
+  </si>
+  <si>
+    <t>2.5.1.5</t>
+  </si>
+  <si>
+    <t>2.5.1.6</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.5.1.7</t>
+  </si>
+  <si>
+    <t>2.5.2.1</t>
+  </si>
+  <si>
+    <t>2.6.2.2</t>
+  </si>
+  <si>
+    <t>2.6.2.3</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.8.1</t>
   </si>
 </sst>
 </file>
@@ -418,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +588,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,12 +681,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -816,7 +864,7 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,32 +981,83 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -967,12 +1066,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,106 +1111,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,7 +1459,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1436,20 +1478,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1458,107 +1500,107 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="B6" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1590,6 +1632,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1598,11 +1645,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1613,13 +1655,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1636,18 +1678,18 @@
         <v>37</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="61"/>
+      <c r="D1" s="87"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -1668,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -1678,745 +1720,789 @@
         <v>24</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="44"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="44"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="66"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="82"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="B13" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="70"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="70"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="73"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="73"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="73"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="25"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="47"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:4" outlineLevel="1">
-      <c r="A25" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="73"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" outlineLevel="1">
-      <c r="A26" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4" outlineLevel="1">
-      <c r="A27" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="70"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="73"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="25"/>
+      <c r="A28" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" ht="30">
+      <c r="A29" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="28" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>29</v>
       </c>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="92" t="s">
+      <c r="A31" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:4" outlineLevel="1">
-      <c r="A32" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="92" t="s">
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4" outlineLevel="1">
-      <c r="A33" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="94" t="s">
-        <v>122</v>
-      </c>
       <c r="D33" s="25"/>
     </row>
-    <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="73"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="92" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="77"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="92" t="s">
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" outlineLevel="1">
+      <c r="A35" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="47"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" outlineLevel="1">
+      <c r="A36" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="1">
+      <c r="A37" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="25"/>
+      <c r="A38" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="47"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" outlineLevel="1">
+      <c r="A42" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" outlineLevel="1">
+      <c r="A43" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" ht="30">
+      <c r="A44" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="73"/>
-    </row>
-    <row r="41" spans="1:4" ht="30">
-      <c r="A41" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="70"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="93"/>
-      <c r="D43" s="73"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="25"/>
+      <c r="B44" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="47"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>29</v>
       </c>
       <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="25"/>
+      <c r="A46" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="85" t="s">
-        <v>59</v>
+        <v>119</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>29</v>
       </c>
       <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="92" t="s">
+      <c r="A50" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="47"/>
+    </row>
+    <row r="51" spans="1:10" ht="30">
+      <c r="A51" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="73"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="93"/>
       <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="73"/>
+      <c r="A52" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="62"/>
+      <c r="D52" s="44"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="J53" s="35"/>
+      <c r="A53" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="47"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="25"/>
-      <c r="J54" s="35"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="70"/>
-      <c r="J55" s="35"/>
+      <c r="A55" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="84" t="s">
+      <c r="A56" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="25"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="47"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="64"/>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="47"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="J63" s="35"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="J56" s="35"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="90"/>
-      <c r="D57" s="67"/>
-      <c r="J57" s="35"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="90"/>
-      <c r="D60" s="67"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="25"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="67"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="25"/>
-    </row>
-    <row r="65" spans="1:4" ht="30">
-      <c r="A65" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="79"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="97"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="44"/>
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="63"/>
       <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67"/>
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68"/>
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="J66" s="35"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="62"/>
+      <c r="D67" s="44"/>
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="63"/>
+      <c r="D68" s="25"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69"/>
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70"/>
       <c r="B70"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70" s="35"/>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71"/>
       <c r="B71"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71" s="35"/>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:10">
       <c r="A73"/>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:10">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:10">
       <c r="A75"/>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:10">
       <c r="A76"/>
       <c r="B76"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77"/>
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78"/>
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79"/>
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80"/>
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81"/>
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82"/>
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83"/>
+      <c r="B83"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
   <si>
     <t>N/A</t>
   </si>
@@ -231,12 +231,6 @@
     <t>Уникальность поля</t>
   </si>
   <si>
-    <t>Ошибка при сохранении проекта с уже имеющимся полем "Сокращенное название"</t>
-  </si>
-  <si>
-    <t>Ошибка при сохранении проекта с уже имеющимся полем "названием"</t>
-  </si>
-  <si>
     <t>max кол-во символов (128)</t>
   </si>
   <si>
@@ -273,15 +267,6 @@
     <t>Просмотр формы в  режиме добавления проекта</t>
   </si>
   <si>
-    <t>Кнопка "Добавить"</t>
-  </si>
-  <si>
-    <t>Кнопка "Удалить"</t>
-  </si>
-  <si>
-    <t>Кнопка "Изменить"</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -399,9 +384,6 @@
     <t>Отмена сохранения проекта</t>
   </si>
   <si>
-    <t>Кнопка "Сохраненить"</t>
-  </si>
-  <si>
     <t>Кнопка "Отменить"</t>
   </si>
   <si>
@@ -454,6 +436,24 @@
   </si>
   <si>
     <t>2.8.1</t>
+  </si>
+  <si>
+    <t>Кнопка "Сохранить"</t>
+  </si>
+  <si>
+    <t>Переход на форму "Добавления преокта"</t>
+  </si>
+  <si>
+    <t>Переход на форму "Редактирования проекта"</t>
+  </si>
+  <si>
+    <t>Текущая запись удаляется после нажатия кнопки "Удалить"</t>
+  </si>
+  <si>
+    <t>Ошибка при сохранении проекта с уже имеющимся полем "названием" : " Ошибка при сохранении данных. Проект с таким названием уже существует"</t>
+  </si>
+  <si>
+    <t>Ошибка при сохранении проекта с уже имеющимся полем "Сокращенное название": "Ошибка при сохранении данных. Проект с таким сокращенным название уже существует"</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +597,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +689,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3E0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -859,12 +873,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1058,6 +1076,51 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1066,39 +1129,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,26 +1147,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
     <cellStyle name="Хороший" xfId="2" builtinId="26"/>
@@ -1478,20 +1500,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1500,107 +1522,107 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1632,11 +1654,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1645,6 +1662,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1658,10 +1680,10 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1678,18 +1700,18 @@
         <v>37</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="87"/>
+      <c r="D1" s="93"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -1732,9 +1754,9 @@
         <v>33</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="95"/>
+        <v>74</v>
+      </c>
+      <c r="C6" s="73"/>
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4">
@@ -1742,7 +1764,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>52</v>
@@ -1751,20 +1773,20 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>52</v>
@@ -1776,9 +1798,9 @@
         <v>54</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="95"/>
+        <v>75</v>
+      </c>
+      <c r="C10" s="73"/>
       <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4">
@@ -1786,7 +1808,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>52</v>
@@ -1810,8 +1832,8 @@
       <c r="B13" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>71</v>
+      <c r="C13" s="96" t="s">
+        <v>1</v>
       </c>
       <c r="D13" s="25"/>
     </row>
@@ -1822,27 +1844,27 @@
       <c r="B14" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="56" t="s">
-        <v>71</v>
+      <c r="C14" s="96" t="s">
+        <v>1</v>
       </c>
       <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="A15" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="51" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>52</v>
@@ -1851,7 +1873,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>46</v>
@@ -1861,7 +1883,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>47</v>
@@ -1873,7 +1895,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>48</v>
@@ -1885,7 +1907,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>67</v>
@@ -1897,7 +1919,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>44</v>
@@ -1907,7 +1929,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="45" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>50</v>
@@ -1917,7 +1939,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>34</v>
@@ -1929,7 +1951,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>35</v>
@@ -1941,7 +1963,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -1953,7 +1975,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>53</v>
@@ -1965,31 +1987,31 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="68" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="30">
       <c r="A29" s="45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>51</v>
@@ -1999,7 +2021,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>39</v>
@@ -2011,7 +2033,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="45" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>43</v>
@@ -2021,7 +2043,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>41</v>
@@ -2033,7 +2055,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>42</v>
@@ -2045,7 +2067,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>40</v>
@@ -2057,7 +2079,7 @@
     </row>
     <row r="35" spans="1:4" outlineLevel="1">
       <c r="A35" s="45" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B35" s="60" t="s">
         <v>67</v>
@@ -2065,12 +2087,12 @@
       <c r="C35" s="64"/>
       <c r="D35" s="47"/>
     </row>
-    <row r="36" spans="1:4" ht="30" outlineLevel="1">
+    <row r="36" spans="1:4" ht="45" outlineLevel="1">
       <c r="A36" s="28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C36" s="63" t="s">
         <v>29</v>
@@ -2079,7 +2101,7 @@
     </row>
     <row r="37" spans="1:4" outlineLevel="1">
       <c r="A37" s="42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B37" s="43" t="s">
         <v>45</v>
@@ -2089,7 +2111,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>50</v>
@@ -2099,7 +2121,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>34</v>
@@ -2111,7 +2133,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>35</v>
@@ -2123,7 +2145,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>36</v>
@@ -2135,7 +2157,7 @@
     </row>
     <row r="42" spans="1:4" outlineLevel="1">
       <c r="A42" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>53</v>
@@ -2147,19 +2169,19 @@
     </row>
     <row r="43" spans="1:4" outlineLevel="1">
       <c r="A43" s="28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B44" s="46" t="s">
         <v>51</v>
@@ -2169,7 +2191,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B45" s="33" t="s">
         <v>39</v>
@@ -2181,7 +2203,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B46" s="59" t="s">
         <v>43</v>
@@ -2191,7 +2213,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>41</v>
@@ -2203,7 +2225,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>42</v>
@@ -2215,7 +2237,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>40</v>
@@ -2227,7 +2249,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B50" s="60" t="s">
         <v>67</v>
@@ -2235,12 +2257,12 @@
       <c r="C50" s="64"/>
       <c r="D50" s="47"/>
     </row>
-    <row r="51" spans="1:10" ht="30">
+    <row r="51" spans="1:10" ht="45">
       <c r="A51" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C51" s="63" t="s">
         <v>29</v>
@@ -2249,7 +2271,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B52" s="53" t="s">
         <v>63</v>
@@ -2259,7 +2281,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B53" s="46" t="s">
         <v>50</v>
@@ -2269,7 +2291,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>34</v>
@@ -2281,31 +2303,31 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="28" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>36</v>
@@ -2317,7 +2339,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B58" s="32" t="s">
         <v>53</v>
@@ -2329,10 +2351,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="57" t="s">
         <v>52</v>
@@ -2341,7 +2363,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>39</v>
@@ -2349,21 +2371,21 @@
       <c r="C60" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="47"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="45" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B61" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C61" s="64"/>
-      <c r="D61" s="25"/>
+      <c r="D61" s="47"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>41</v>
@@ -2371,11 +2393,11 @@
       <c r="C62" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="47"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B63" s="49" t="s">
         <v>42</v>
@@ -2388,10 +2410,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="63" t="s">
         <v>29</v>
@@ -2401,10 +2423,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C65" s="62"/>
       <c r="D65" s="44"/>
@@ -2412,21 +2434,23 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="63"/>
+        <v>137</v>
+      </c>
+      <c r="C66" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="D66" s="25"/>
       <c r="J66" s="35"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="42" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B67" s="53" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C67" s="62"/>
       <c r="D67" s="44"/>
@@ -2434,12 +2458,14 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="63"/>
+        <v>119</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="D68" s="25"/>
       <c r="J68" s="35"/>
     </row>
@@ -2508,7 +2534,11 @@
   <mergeCells count="1">
     <mergeCell ref="C1:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -384,9 +384,6 @@
     <t>Отмена сохранения проекта</t>
   </si>
   <si>
-    <t>Кнопка "Отменить"</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>2.8.1</t>
   </si>
   <si>
-    <t>Кнопка "Сохранить"</t>
-  </si>
-  <si>
     <t>Переход на форму "Добавления преокта"</t>
   </si>
   <si>
@@ -454,6 +448,12 @@
   </si>
   <si>
     <t>Ошибка при сохранении проекта с уже имеющимся полем "Сокращенное название": "Ошибка при сохранении данных. Проект с таким сокращенным название уже существует"</t>
+  </si>
+  <si>
+    <t>Текущая запись сохраняется после нажатия кнопки "Сохранить"</t>
+  </si>
+  <si>
+    <t>Текущая запись не сохраняется после нажатия кнопки "Отменить"</t>
   </si>
 </sst>
 </file>
@@ -1095,32 +1095,8 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1129,12 +1105,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,9 +1148,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1500,20 +1500,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1522,107 +1522,107 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1654,6 +1654,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1662,11 +1667,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1680,10 +1680,10 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1700,18 +1700,18 @@
         <v>37</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="93"/>
+      <c r="D1" s="94"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -1764,7 +1764,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>52</v>
@@ -1786,7 +1786,7 @@
         <v>80</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>52</v>
@@ -1808,7 +1808,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>52</v>
@@ -1832,7 +1832,7 @@
       <c r="B13" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="74" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="25"/>
@@ -1844,7 +1844,7 @@
       <c r="B14" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="74" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="25"/>
@@ -2092,7 +2092,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" s="63" t="s">
         <v>29</v>
@@ -2262,7 +2262,7 @@
         <v>116</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" s="63" t="s">
         <v>29</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="53" t="s">
         <v>63</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="46" t="s">
         <v>50</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>34</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>35</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>49</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>36</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="32" t="s">
         <v>53</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="32" t="s">
         <v>71</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>39</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" s="48" t="s">
         <v>43</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>41</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="49" t="s">
         <v>42</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="49" t="s">
         <v>72</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="53" t="s">
         <v>117</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C66" s="63" t="s">
         <v>52</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" s="53" t="s">
         <v>118</v>
@@ -2456,12 +2456,12 @@
       <c r="D67" s="44"/>
       <c r="J67" s="35"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" ht="30">
       <c r="A68" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C68" s="63" t="s">
         <v>52</v>

--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
   <si>
     <t>N/A</t>
   </si>
   <si>
     <t>???</t>
-  </si>
-  <si>
-    <t>V1.0.0</t>
   </si>
   <si>
     <t>№</t>
@@ -318,18 +315,6 @@
     <t>2.3.2.1</t>
   </si>
   <si>
-    <t>2.3.3</t>
-  </si>
-  <si>
-    <t>2.3.3.1</t>
-  </si>
-  <si>
-    <t>2.3.3.2</t>
-  </si>
-  <si>
-    <t>2.3.2.3</t>
-  </si>
-  <si>
     <t>2.3.4</t>
   </si>
   <si>
@@ -411,18 +396,9 @@
     <t>2.5.2</t>
   </si>
   <si>
-    <t>2.5.1.7</t>
-  </si>
-  <si>
     <t>2.5.2.1</t>
   </si>
   <si>
-    <t>2.6.2.2</t>
-  </si>
-  <si>
-    <t>2.6.2.3</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
@@ -444,16 +420,46 @@
     <t>Текущая запись удаляется после нажатия кнопки "Удалить"</t>
   </si>
   <si>
-    <t>Ошибка при сохранении проекта с уже имеющимся полем "названием" : " Ошибка при сохранении данных. Проект с таким названием уже существует"</t>
-  </si>
-  <si>
-    <t>Ошибка при сохранении проекта с уже имеющимся полем "Сокращенное название": "Ошибка при сохранении данных. Проект с таким сокращенным название уже существует"</t>
-  </si>
-  <si>
     <t>Текущая запись сохраняется после нажатия кнопки "Сохранить"</t>
   </si>
   <si>
     <t>Текущая запись не сохраняется после нажатия кнопки "Отменить"</t>
+  </si>
+  <si>
+    <t>V1.01</t>
+  </si>
+  <si>
+    <t>2.5.2.2</t>
+  </si>
+  <si>
+    <t>2.5.2.2.1</t>
+  </si>
+  <si>
+    <t>2.6.2.2.3</t>
+  </si>
+  <si>
+    <t>2.5.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка при сохранении проекта с уже имеющимся полем "названием" </t>
+  </si>
+  <si>
+    <t>2.3.2.2</t>
+  </si>
+  <si>
+    <t>2.3.2.2.1</t>
+  </si>
+  <si>
+    <t>2.3.3.2.2</t>
+  </si>
+  <si>
+    <t>2.3.3.2.3</t>
+  </si>
+  <si>
+    <t>Ошибка при сохранении проекта с уже имеющимся полем "Сокращенное название"</t>
   </si>
 </sst>
 </file>
@@ -1068,16 +1074,10 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,6 +1149,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1481,7 +1487,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,156 +1506,156 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="A3" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
+      <c r="A8" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="B9" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
+        <v>29</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
+        <v>29</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1677,19 +1683,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="65" style="35" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
@@ -1697,34 +1703,34 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="94"/>
+      <c r="C1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1732,750 +1738,755 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" ht="75">
       <c r="A5" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="73"/>
+        <v>73</v>
+      </c>
+      <c r="C6" s="71"/>
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="73"/>
+        <v>55</v>
+      </c>
+      <c r="C8" s="71"/>
       <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="73"/>
+        <v>74</v>
+      </c>
+      <c r="C10" s="71"/>
       <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" ht="30">
       <c r="A14" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="B15" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="62"/>
       <c r="D21" s="44"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="47"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>1</v>
       </c>
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>1</v>
       </c>
       <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>1</v>
       </c>
       <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>138</v>
       </c>
       <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>1</v>
       </c>
       <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>1</v>
       </c>
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="30">
       <c r="A29" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="47"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>138</v>
       </c>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="45" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="28" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="28" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="28" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" outlineLevel="1">
       <c r="A35" s="45" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="47"/>
     </row>
-    <row r="36" spans="1:4" ht="45" outlineLevel="1">
+    <row r="36" spans="1:4" ht="30" outlineLevel="1">
       <c r="A36" s="28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B36" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="63" t="s">
-        <v>29</v>
+      <c r="C36" s="72" t="s">
+        <v>138</v>
       </c>
       <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" outlineLevel="1">
       <c r="A37" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="61"/>
       <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="64"/>
       <c r="D38" s="47"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>1</v>
       </c>
       <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4" outlineLevel="1">
       <c r="A42" s="28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" outlineLevel="1">
       <c r="A43" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="65" t="s">
         <v>69</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>1</v>
       </c>
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="45" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="47"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="58" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="66"/>
+        <v>42</v>
+      </c>
+      <c r="C46" s="65"/>
       <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="64"/>
       <c r="D50" s="47"/>
     </row>
-    <row r="51" spans="1:10" ht="45">
+    <row r="51" spans="1:10" ht="30">
       <c r="A51" s="28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="42" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="62"/>
       <c r="D52" s="44"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="64"/>
       <c r="D53" s="47"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>68</v>
       </c>
       <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="25"/>
+    <row r="60" spans="1:10" ht="30">
+      <c r="A60" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="64"/>
+      <c r="D60" s="47"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="47"/>
+      <c r="A61" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="25"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="25"/>
+      <c r="A62" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="64"/>
+      <c r="D62" s="47"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>42</v>
+        <v>135</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="25"/>
-      <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="25"/>
       <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="62"/>
+      <c r="D66" s="44"/>
+      <c r="J66" s="35"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="62"/>
+      <c r="D68" s="44"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="1:10" ht="30">
+      <c r="A69" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="44"/>
-      <c r="J65" s="35"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="J66" s="35"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="44"/>
-      <c r="J67" s="35"/>
-    </row>
-    <row r="68" spans="1:10" ht="30">
-      <c r="A68" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="25"/>
-      <c r="J68" s="35"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69"/>
+      <c r="C69" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="J69" s="35"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70"/>
-      <c r="B70"/>
-      <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71"/>
@@ -2485,6 +2496,7 @@
     <row r="72" spans="1:10">
       <c r="A72"/>
       <c r="B72"/>
+      <c r="F72" s="35"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73"/>
@@ -2529,6 +2541,10 @@
     <row r="83" spans="1:2">
       <c r="A83"/>
       <c r="B83"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84"/>
+      <c r="B84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2537,8 +2553,18 @@
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1"/>
     <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C27" r:id="rId3"/>
+    <hyperlink ref="C30" r:id="rId4"/>
+    <hyperlink ref="C26" r:id="rId5"/>
+    <hyperlink ref="C36" r:id="rId6"/>
+    <hyperlink ref="C28" r:id="rId7" display="ОК"/>
+    <hyperlink ref="C43" r:id="rId8"/>
+    <hyperlink ref="C39" r:id="rId9" display=" OK"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="C25" r:id="rId11"/>
+    <hyperlink ref="C23" r:id="rId12" display=" OK"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -411,18 +411,6 @@
     <t>2.8.1</t>
   </si>
   <si>
-    <t>Переход на форму "Добавления преокта"</t>
-  </si>
-  <si>
-    <t>Переход на форму "Редактирования проекта"</t>
-  </si>
-  <si>
-    <t>Текущая запись удаляется после нажатия кнопки "Удалить"</t>
-  </si>
-  <si>
-    <t>Текущая запись сохраняется после нажатия кнопки "Сохранить"</t>
-  </si>
-  <si>
     <t>Текущая запись не сохраняется после нажатия кнопки "Отменить"</t>
   </si>
   <si>
@@ -460,6 +448,18 @@
   </si>
   <si>
     <t>Ошибка при сохранении проекта с уже имеющимся полем "Сокращенное название"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход на форму  добавления проекта нажатием кнопки "Добавить" </t>
+  </si>
+  <si>
+    <t>Текущая запись удаляется нажатием кнопки "Удалить"</t>
+  </si>
+  <si>
+    <t>Переход на форму  редактирования проекта надаьтаем кнопки "Изменить"</t>
+  </si>
+  <si>
+    <t>Текущая запись сохраняется нажатием кнопки "Сохранить"</t>
   </si>
 </sst>
 </file>
@@ -1098,6 +1098,39 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1105,39 +1138,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,12 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1506,20 +1506,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1528,107 +1528,107 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1649,7 +1649,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -1660,11 +1660,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1673,6 +1668,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1689,13 +1689,13 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="65" style="35" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" style="35" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
@@ -1706,18 +1706,18 @@
         <v>36</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="92"/>
+      <c r="D1" s="94"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -1765,12 +1765,12 @@
       <c r="C6" s="71"/>
       <c r="D6" s="44"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>51</v>
@@ -1792,7 +1792,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>51</v>
@@ -1809,12 +1809,12 @@
       <c r="C10" s="71"/>
       <c r="D10" s="44"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>51</v>
@@ -1987,7 +1987,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D26" s="25"/>
     </row>
@@ -1998,7 +1998,7 @@
       <c r="B27" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="25"/>
@@ -2010,7 +2010,7 @@
       <c r="B28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="74" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="25"/>
@@ -2033,13 +2033,13 @@
         <v>38</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>42</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>40</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>41</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>39</v>
@@ -2098,10 +2098,10 @@
         <v>97</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D36" s="25"/>
     </row>
@@ -2180,7 +2180,7 @@
       <c r="B43" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="95" t="s">
+      <c r="C43" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="25"/>
@@ -2268,7 +2268,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" s="63" t="s">
         <v>28</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B62" s="48" t="s">
         <v>42</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B63" s="34" t="s">
         <v>40</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B64" s="49" t="s">
         <v>41</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="49" t="s">
         <v>71</v>
@@ -2453,7 +2453,7 @@
         <v>125</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C67" s="63" t="s">
         <v>51</v>
@@ -2472,12 +2472,12 @@
       <c r="D68" s="44"/>
       <c r="J68" s="35"/>
     </row>
-    <row r="69" spans="1:10" ht="30">
+    <row r="69" spans="1:10">
       <c r="A69" s="28" t="s">
         <v>127</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C69" s="63" t="s">
         <v>51</v>

--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
   <si>
     <t>N/A</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Уникальность поля</t>
   </si>
   <si>
-    <t>max кол-во символов (128)</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>попытка переполнения поля, например, 2000 символа</t>
   </si>
   <si>
-    <t>min кол-во символов (1)</t>
-  </si>
-  <si>
     <t>Добавление проекта</t>
   </si>
   <si>
@@ -456,10 +450,91 @@
     <t>Текущая запись удаляется нажатием кнопки "Удалить"</t>
   </si>
   <si>
-    <t>Переход на форму  редактирования проекта надаьтаем кнопки "Изменить"</t>
-  </si>
-  <si>
     <t>Текущая запись сохраняется нажатием кнопки "Сохранить"</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Обнавление страницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Сохранение введенных данных в поля после обновления страницы</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>После сохранения новый проект отображается в "Cписке проектов"</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max кол-во символов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min кол-во символов </t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>После сохранения, изменения отображаются в списке проектов</t>
+  </si>
+  <si>
+    <t>Переход на форму  редактирования проекта нажатием кнопки "Изменить"</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Удаление единственной записи в списке проектов</t>
+  </si>
+  <si>
+    <t>Удаление записи в списке проектов из множества уже созданных проектов в списке</t>
+  </si>
+  <si>
+    <t>В списке проектов отображаются все созданные проекты</t>
+  </si>
+  <si>
+    <t>Значения поля отображается корректно</t>
+  </si>
+  <si>
+    <t>Корректное отображение строки таблицы при кол-ве символов превыщающее длину размера колонки</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Поле "Сокращенное название"</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Все допустимые символы  отображаются корректно</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Сортировка списка проектов осуществляется по полю "Идентификатор"</t>
+  </si>
+  <si>
+    <t>Символы в нижних и верхних регистрах латиница [A-z], кириллица [А-я] отображаются корректно и не обрезаются</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текущая запись удаляется (не отображается ) из списка проектов </t>
+  </si>
+  <si>
+    <t>Обновление  значений полей записи в таблице после сохранение таблицы</t>
   </si>
 </sst>
 </file>
@@ -469,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,14 +656,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -882,13 +949,13 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,9 +1117,6 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1068,18 +1132,12 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1089,47 +1147,20 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1138,12 +1169,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,6 +1212,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,7 +1234,7 @@
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1506,20 +1579,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1528,107 +1601,107 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1649,7 +1722,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -1660,6 +1733,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1668,11 +1746,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1683,19 +1756,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" style="35" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
@@ -1706,18 +1779,18 @@
         <v>36</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="94"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -1750,7 +1823,7 @@
       <c r="B5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="94" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="25"/>
@@ -1760,9 +1833,9 @@
         <v>32</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="71"/>
+        <v>71</v>
+      </c>
+      <c r="C6" s="68"/>
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="30">
@@ -1770,801 +1843,1054 @@
         <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="94" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="44"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="B10" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="42" t="s">
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="28"/>
+      <c r="B12" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="44"/>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="28" t="s">
+      <c r="B14" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="56" t="s">
+      <c r="B15" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="54"/>
+      <c r="A16" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="62"/>
+        <v>54</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="61"/>
       <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="38"/>
+      <c r="A18" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="38"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="38"/>
+      <c r="A19" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B23" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="44"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="46" t="s">
+      <c r="C25" s="97"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="97"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="97"/>
+      <c r="D33" s="44"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="69"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" ht="30">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" ht="30">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="54"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="61"/>
+      <c r="D42" s="44"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="38"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="61"/>
+      <c r="D46" s="44"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="47"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:4" ht="30">
-      <c r="A29" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="47"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="47"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:4" outlineLevel="1">
-      <c r="A35" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="47"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" outlineLevel="1">
-      <c r="A36" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:4" outlineLevel="1">
-      <c r="A37" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="44"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="47"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:4" outlineLevel="1">
-      <c r="A42" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:4" outlineLevel="1">
-      <c r="A43" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="25"/>
-    </row>
-    <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="47"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="25"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="50"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="25"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="25"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="62"/>
+      <c r="D54" s="47"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="62"/>
+      <c r="D56" s="47"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="25"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="62"/>
+      <c r="D60" s="47"/>
+    </row>
+    <row r="61" spans="1:4" ht="30" outlineLevel="1">
+      <c r="A61" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" outlineLevel="1">
+      <c r="A62" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="44"/>
+    </row>
+    <row r="63" spans="1:4" outlineLevel="1">
+      <c r="A63" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="62"/>
+      <c r="D63" s="47"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1">
+      <c r="A68" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1">
+      <c r="A69" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="62"/>
+      <c r="D69" s="47"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="63"/>
+      <c r="D71" s="50"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="25"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B75" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="62"/>
+      <c r="D75" s="47"/>
+    </row>
+    <row r="76" spans="1:4" ht="30">
+      <c r="A76" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="61"/>
+      <c r="D77" s="44"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="62"/>
+      <c r="D78" s="47"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="62"/>
+      <c r="D85" s="47"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="25"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="62"/>
+      <c r="D87" s="47"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="25"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C89" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="25"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="63" t="s">
+      <c r="D89" s="25"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="45" t="s">
+      <c r="D90" s="25"/>
+      <c r="J90" s="35"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="47"/>
-    </row>
-    <row r="51" spans="1:10" ht="30">
-      <c r="A51" s="28" t="s">
+      <c r="C91" s="61"/>
+      <c r="D91" s="44"/>
+      <c r="J91" s="35"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="25"/>
+      <c r="J92" s="35"/>
+    </row>
+    <row r="93" spans="1:10" ht="30">
+      <c r="A93" s="51"/>
+      <c r="B93" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="98"/>
+      <c r="D93" s="25"/>
+      <c r="J93" s="35"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="44"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="47"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="25"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="25"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="25"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="57" t="s">
+      <c r="C94" s="61"/>
+      <c r="D94" s="44"/>
+      <c r="J94" s="35"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="1:10" ht="30">
-      <c r="A60" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="47"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="47"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="25"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="25"/>
-      <c r="J64" s="35"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="28" t="s">
+      <c r="D95" s="25"/>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="61"/>
+      <c r="D96" s="44"/>
+      <c r="J96" s="35"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="51"/>
+      <c r="B97" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="25"/>
-      <c r="J65" s="35"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="44"/>
-      <c r="J66" s="35"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="25"/>
-      <c r="J67" s="35"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="44"/>
-      <c r="J68" s="35"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="J69" s="35"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="F71" s="35"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="F72" s="35"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73"/>
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74"/>
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75"/>
-      <c r="B75"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76"/>
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77"/>
-      <c r="B77"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78"/>
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79"/>
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80"/>
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81"/>
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82"/>
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83"/>
-      <c r="B83"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84"/>
-      <c r="B84"/>
+      <c r="D97" s="25"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="F98" s="35"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="F99" s="35"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100"/>
+      <c r="B100"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101"/>
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102"/>
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103"/>
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104"/>
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105"/>
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106"/>
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107"/>
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108"/>
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109"/>
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110"/>
+      <c r="B110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C27" r:id="rId3"/>
-    <hyperlink ref="C30" r:id="rId4"/>
-    <hyperlink ref="C26" r:id="rId5"/>
-    <hyperlink ref="C36" r:id="rId6"/>
-    <hyperlink ref="C28" r:id="rId7" display="ОК"/>
-    <hyperlink ref="C43" r:id="rId8"/>
-    <hyperlink ref="C39" r:id="rId9" display=" OK"/>
-    <hyperlink ref="C24" r:id="rId10"/>
-    <hyperlink ref="C25" r:id="rId11"/>
-    <hyperlink ref="C23" r:id="rId12" display=" OK"/>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId2"/>
+    <hyperlink ref="C52" r:id="rId3"/>
+    <hyperlink ref="C55" r:id="rId4"/>
+    <hyperlink ref="C51" r:id="rId5"/>
+    <hyperlink ref="C61" r:id="rId6"/>
+    <hyperlink ref="C53" r:id="rId7" display="ОК"/>
+    <hyperlink ref="C68" r:id="rId8"/>
+    <hyperlink ref="C64" r:id="rId9" display=" OK"/>
+    <hyperlink ref="C49" r:id="rId10"/>
+    <hyperlink ref="C50" r:id="rId11"/>
+    <hyperlink ref="C48" r:id="rId12" display=" OK"/>
+    <hyperlink ref="C97" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
   <si>
     <t>N/A</t>
   </si>
@@ -194,347 +194,377 @@
     <t>Утлик Алиса</t>
   </si>
   <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Отображение таблицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение  таблицы с количеством записей превышающим область видимости страницы </t>
+  </si>
+  <si>
+    <t>Поле "Описание"</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Форма список проектов</t>
+  </si>
+  <si>
+    <t>Уникальность поля</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>max кол-во символов (10)</t>
+  </si>
+  <si>
+    <t>max кол-во символов (1000)</t>
+  </si>
+  <si>
+    <t>попытка переполнения поля, например, 2000 символа</t>
+  </si>
+  <si>
+    <t>Добавление проекта</t>
+  </si>
+  <si>
+    <t>Редактирование проета</t>
+  </si>
+  <si>
+    <t>Создание/редактирование проекта</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Просмотр формы в  режиме добавления проекта</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.1.1</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>2.3.1.3</t>
+  </si>
+  <si>
+    <t>2.3.1.4</t>
+  </si>
+  <si>
+    <t>2.3.1.5</t>
+  </si>
+  <si>
+    <t>2.3.1.6</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.2.1</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.4.1</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>2.4.1.1</t>
+  </si>
+  <si>
+    <t>2.4.1.2</t>
+  </si>
+  <si>
+    <t>2.4.1.3</t>
+  </si>
+  <si>
+    <t>2.4.1.4</t>
+  </si>
+  <si>
+    <t>2.4.1.5</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>2.4.2.1</t>
+  </si>
+  <si>
+    <t>2.4.2.2</t>
+  </si>
+  <si>
+    <t>2.4.2.2.1</t>
+  </si>
+  <si>
+    <t>2.4.2.2.2</t>
+  </si>
+  <si>
+    <t>2.4.2.2.3</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>2.4.3.1</t>
+  </si>
+  <si>
+    <t>Сохранение проекта</t>
+  </si>
+  <si>
+    <t>Отмена сохранения проекта</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5.1.1</t>
+  </si>
+  <si>
+    <t>2.5.1.2</t>
+  </si>
+  <si>
+    <t>2.5.1.3</t>
+  </si>
+  <si>
+    <t>2.5.1.4</t>
+  </si>
+  <si>
+    <t>2.5.1.5</t>
+  </si>
+  <si>
+    <t>2.5.1.6</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.5.2.1</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.8.1</t>
+  </si>
+  <si>
+    <t>Текущая запись не сохраняется после нажатия кнопки "Отменить"</t>
+  </si>
+  <si>
+    <t>V1.01</t>
+  </si>
+  <si>
+    <t>2.5.2.2</t>
+  </si>
+  <si>
+    <t>2.5.2.2.1</t>
+  </si>
+  <si>
+    <t>2.6.2.2.3</t>
+  </si>
+  <si>
+    <t>2.5.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка при сохранении проекта с уже имеющимся полем "названием" </t>
+  </si>
+  <si>
+    <t>2.3.2.2</t>
+  </si>
+  <si>
+    <t>2.3.2.2.1</t>
+  </si>
+  <si>
+    <t>2.3.3.2.2</t>
+  </si>
+  <si>
+    <t>2.3.3.2.3</t>
+  </si>
+  <si>
+    <t>Ошибка при сохранении проекта с уже имеющимся полем "Сокращенное название"</t>
+  </si>
+  <si>
+    <t>Текущая запись удаляется нажатием кнопки "Удалить"</t>
+  </si>
+  <si>
+    <t>Текущая запись сохраняется нажатием кнопки "Сохранить"</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max кол-во символов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min кол-во символов </t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Удаление единственной записи в списке проектов</t>
+  </si>
+  <si>
+    <t>Удаление записи в списке проектов из множества уже созданных проектов в списке</t>
+  </si>
+  <si>
+    <t>В списке проектов отображаются все созданные проекты</t>
+  </si>
+  <si>
+    <t>Корректное отображение строки таблицы при кол-ве символов превыщающее длину размера колонки</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Поле "Сокращенное название"</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Все допустимые символы  отображаются корректно</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Сортировка списка проектов осуществляется по полю "Идентификатор"</t>
+  </si>
+  <si>
+    <t>Символы в нижних и верхних регистрах латиница [A-z], кириллица [А-я] отображаются корректно и не обрезаются</t>
+  </si>
+  <si>
+    <t>Обновление  значений полей записи в таблице после сохранение таблицы</t>
+  </si>
+  <si>
     <t>Отображение элементов формы:
-- поле "Идентификатор"
-- поле "Название"
-- поле "Сокращённое название"
+- Идентификатор
+- Название
+- Сокращённое название
 - Описание</t>
   </si>
   <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>Отображение таблицы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отображение  таблицы с количеством записей превышающим область видимости страницы </t>
-  </si>
-  <si>
-    <t>Отображение таблицы без записей</t>
-  </si>
-  <si>
-    <t>Поле "Описание"</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>1.5.2</t>
-  </si>
-  <si>
-    <t>Форма список проектов</t>
-  </si>
-  <si>
-    <t>Уникальность поля</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>max кол-во символов (10)</t>
-  </si>
-  <si>
-    <t>max кол-во символов (1000)</t>
-  </si>
-  <si>
-    <t>попытка переполнения поля, например, 2000 символа</t>
-  </si>
-  <si>
-    <t>Добавление проекта</t>
-  </si>
-  <si>
-    <t>Редактирование проета</t>
-  </si>
-  <si>
-    <t>Создание/редактирование проекта</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>Просмотр формы в  режиме добавления проекта</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>2.3.1.1</t>
-  </si>
-  <si>
-    <t>2.3.1.2</t>
-  </si>
-  <si>
-    <t>2.3.1.3</t>
-  </si>
-  <si>
-    <t>2.3.1.4</t>
-  </si>
-  <si>
-    <t>2.3.1.5</t>
-  </si>
-  <si>
-    <t>2.3.1.6</t>
-  </si>
-  <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
-    <t>2.3.2.1</t>
-  </si>
-  <si>
-    <t>2.3.4</t>
-  </si>
-  <si>
-    <t>2.3.4.1</t>
-  </si>
-  <si>
-    <t>2.4.1</t>
-  </si>
-  <si>
-    <t>2.4.1.1</t>
-  </si>
-  <si>
-    <t>2.4.1.2</t>
-  </si>
-  <si>
-    <t>2.4.1.3</t>
-  </si>
-  <si>
-    <t>2.4.1.4</t>
-  </si>
-  <si>
-    <t>2.4.1.5</t>
-  </si>
-  <si>
-    <t>2.4.2</t>
-  </si>
-  <si>
-    <t>2.4.2.1</t>
-  </si>
-  <si>
-    <t>2.4.2.2</t>
-  </si>
-  <si>
-    <t>2.4.2.2.1</t>
-  </si>
-  <si>
-    <t>2.4.2.2.2</t>
-  </si>
-  <si>
-    <t>2.4.2.2.3</t>
-  </si>
-  <si>
-    <t>2.4.3</t>
-  </si>
-  <si>
-    <t>2.4.3.1</t>
-  </si>
-  <si>
-    <t>Сохранение проекта</t>
-  </si>
-  <si>
-    <t>Отмена сохранения проекта</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.5.1</t>
-  </si>
-  <si>
-    <t>2.5.1.1</t>
-  </si>
-  <si>
-    <t>2.5.1.2</t>
-  </si>
-  <si>
-    <t>2.5.1.3</t>
-  </si>
-  <si>
-    <t>2.5.1.4</t>
-  </si>
-  <si>
-    <t>2.5.1.5</t>
-  </si>
-  <si>
-    <t>2.5.1.6</t>
-  </si>
-  <si>
-    <t>2.5.2</t>
-  </si>
-  <si>
-    <t>2.5.2.1</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.7.1</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.8.1</t>
-  </si>
-  <si>
-    <t>Текущая запись не сохраняется после нажатия кнопки "Отменить"</t>
-  </si>
-  <si>
-    <t>V1.01</t>
-  </si>
-  <si>
-    <t>2.5.2.2</t>
-  </si>
-  <si>
-    <t>2.5.2.2.1</t>
-  </si>
-  <si>
-    <t>2.6.2.2.3</t>
-  </si>
-  <si>
-    <t>2.5.2.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ошибка при сохранении проекта с уже имеющимся полем "названием" </t>
-  </si>
-  <si>
-    <t>2.3.2.2</t>
-  </si>
-  <si>
-    <t>2.3.2.2.1</t>
-  </si>
-  <si>
-    <t>2.3.3.2.2</t>
-  </si>
-  <si>
-    <t>2.3.3.2.3</t>
-  </si>
-  <si>
-    <t>Ошибка при сохранении проекта с уже имеющимся полем "Сокращенное название"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переход на форму  добавления проекта нажатием кнопки "Добавить" </t>
-  </si>
-  <si>
-    <t>Текущая запись удаляется нажатием кнопки "Удалить"</t>
-  </si>
-  <si>
-    <t>Текущая запись сохраняется нажатием кнопки "Сохранить"</t>
+    <t>Переход к списку проектов после нажатия кнопки "Отменить"</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об ошибке при сохранении проекта с недопустимыми значениями</t>
+  </si>
+  <si>
+    <t>Переход к списку проектов после нажатия кнопки "Сохранить"</t>
+  </si>
+  <si>
+    <t>2.8.2</t>
+  </si>
+  <si>
+    <t>2.7.2</t>
+  </si>
+  <si>
+    <t>2.7.3</t>
+  </si>
+  <si>
+    <t>2.7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход в режим  добавления проекта нажатием кнопки "Добавить" </t>
+  </si>
+  <si>
+    <t>Переход в режим  редактирования проекта нажатием кнопки "Изменить"</t>
+  </si>
+  <si>
+    <t>Отображение таблицы с кол-вом записей = 0</t>
+  </si>
+  <si>
+    <t>Корректное отображение поля таблицы при кол-ве символов превыщающее длину размера колонки</t>
+  </si>
+  <si>
+    <t>После заполнения корректными значениям созданный новый проект отображается в "Cписке проектов"</t>
+  </si>
+  <si>
+    <t>После заполнения некорректными значениям созданный новый проект  не отображается в "Cписке проектов"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текущая запись не отображается в списке проектов после нажатия кнопки "Удалить" </t>
+  </si>
+  <si>
+    <t>Появление формы подтверждения, после нажатетя кнопки "Удалить"</t>
+  </si>
+  <si>
+    <t>Возможность удалить  &lt;2 записии за 1 раз</t>
+  </si>
+  <si>
+    <t>Обновление  значений полей записи в таблице после сохранение изменений</t>
+  </si>
+  <si>
+    <t>Символы  отображаются корректно и не обрезаются</t>
+  </si>
+  <si>
+    <t>Обнавление страницы</t>
+  </si>
+  <si>
+    <t>Обнавление страницы с уже заполненными полями формы</t>
   </si>
   <si>
     <t>2.9</t>
-  </si>
-  <si>
-    <t>Обнавление страницы</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Сохранение введенных данных в поля после обновления страницы</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>После сохранения новый проект отображается в "Cписке проектов"</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max кол-во символов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">min кол-во символов </t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>После сохранения, изменения отображаются в списке проектов</t>
-  </si>
-  <si>
-    <t>Переход на форму  редактирования проекта нажатием кнопки "Изменить"</t>
-  </si>
-  <si>
-    <t>1.5.3</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>Удаление единственной записи в списке проектов</t>
-  </si>
-  <si>
-    <t>Удаление записи в списке проектов из множества уже созданных проектов в списке</t>
-  </si>
-  <si>
-    <t>В списке проектов отображаются все созданные проекты</t>
-  </si>
-  <si>
-    <t>Значения поля отображается корректно</t>
-  </si>
-  <si>
-    <t>Корректное отображение строки таблицы при кол-ве символов превыщающее длину размера колонки</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>Поле "Сокращенное название"</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>Все допустимые символы  отображаются корректно</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>Сортировка списка проектов осуществляется по полю "Идентификатор"</t>
-  </si>
-  <si>
-    <t>Символы в нижних и верхних регистрах латиница [A-z], кириллица [А-я] отображаются корректно и не обрезаются</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Текущая запись удаляется (не отображается ) из списка проектов </t>
-  </si>
-  <si>
-    <t>Обновление  значений полей записи в таблице после сохранение таблицы</t>
   </si>
 </sst>
 </file>
@@ -955,7 +985,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1161,6 +1191,21 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1214,19 +1259,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,20 +1615,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1601,107 +1637,107 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1722,7 +1758,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -1756,13 +1792,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1779,18 +1815,18 @@
         <v>36</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="91"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -1811,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -1821,9 +1857,9 @@
         <v>23</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="25"/>
@@ -1833,356 +1869,388 @@
         <v>32</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="44"/>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4">
       <c r="A7" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="B8" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="94" t="s">
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="28"/>
+      <c r="B9" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="43" t="s">
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="44"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="25"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="56"/>
+        <v>137</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="B12" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="56"/>
+        <v>172</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="28" t="s">
-        <v>148</v>
-      </c>
+    <row r="13" spans="1:4">
+      <c r="A13" s="28"/>
       <c r="B13" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="56"/>
+        <v>146</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>1</v>
+      </c>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="44"/>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="28" t="s">
-        <v>63</v>
-      </c>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="28"/>
       <c r="B15" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>51</v>
+        <v>174</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>1</v>
       </c>
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="28" t="s">
-        <v>151</v>
-      </c>
+      <c r="A16" s="28"/>
       <c r="B16" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="56"/>
+        <v>173</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>1</v>
+      </c>
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B20" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="44"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="44"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="69" t="s">
+      <c r="C23" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="42" t="s">
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="44"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="38"/>
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="A26" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="44"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="94" t="s">
+      <c r="C26" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="38"/>
-    </row>
-    <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="38"/>
-    </row>
-    <row r="24" spans="1:4" ht="30">
-      <c r="A24" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="94" t="s">
+      <c r="D26" s="38"/>
+    </row>
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="38"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="53" t="s">
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="44"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4" ht="30">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:4" ht="30">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="44"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="51"/>
       <c r="B30" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="69"/>
+        <v>156</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>51</v>
+      </c>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="51"/>
       <c r="B31" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>51</v>
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4" ht="30">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="25"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="44"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" s="51"/>
       <c r="B34" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="69"/>
+        <v>156</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>51</v>
+      </c>
       <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="51"/>
       <c r="B35" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="69"/>
+        <v>149</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>51</v>
+      </c>
       <c r="D35" s="25"/>
     </row>
-    <row r="36" spans="1:4" ht="30">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="25"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>51</v>
+      </c>
       <c r="D37" s="25"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>51</v>
+      </c>
       <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="51"/>
       <c r="B39" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="69"/>
+        <v>149</v>
+      </c>
+      <c r="C39" s="99" t="s">
+        <v>51</v>
+      </c>
       <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="66"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="54"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="43" t="s">
         <v>45</v>
@@ -2192,43 +2260,43 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="38"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="38"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="43" t="s">
         <v>43</v>
@@ -2238,7 +2306,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>49</v>
@@ -2248,7 +2316,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>33</v>
@@ -2260,7 +2328,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>34</v>
@@ -2272,7 +2340,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>35</v>
@@ -2284,22 +2352,22 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C52" s="70" t="s">
         <v>1</v>
@@ -2308,10 +2376,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C53" s="71" t="s">
         <v>1</v>
@@ -2320,7 +2388,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>50</v>
@@ -2330,19 +2398,19 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" s="48" t="s">
         <v>42</v>
@@ -2352,65 +2420,65 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="94" t="s">
+      <c r="C57" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="94" t="s">
+      <c r="C58" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="94" t="s">
+      <c r="C59" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="62"/>
       <c r="D60" s="47"/>
     </row>
-    <row r="61" spans="1:4" ht="30" outlineLevel="1">
+    <row r="61" spans="1:4" ht="30">
       <c r="A61" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61" s="25"/>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1">
+    <row r="62" spans="1:4">
       <c r="A62" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>44</v>
@@ -2418,9 +2486,9 @@
       <c r="C62" s="60"/>
       <c r="D62" s="44"/>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1">
+    <row r="63" spans="1:4">
       <c r="A63" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B63" s="46" t="s">
         <v>49</v>
@@ -2430,7 +2498,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>33</v>
@@ -2442,55 +2510,55 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="94" t="s">
+      <c r="C66" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="94" t="s">
+      <c r="C67" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="25"/>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1">
+    <row r="68" spans="1:4">
       <c r="A68" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" s="70" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="25"/>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1">
+    <row r="69" spans="1:4">
       <c r="A69" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B69" s="46" t="s">
         <v>50</v>
@@ -2498,21 +2566,21 @@
       <c r="C69" s="62"/>
       <c r="D69" s="47"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" outlineLevel="1">
       <c r="A70" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="94" t="s">
+      <c r="C70" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="25"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" outlineLevel="1">
       <c r="A71" s="57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B71" s="58" t="s">
         <v>42</v>
@@ -2520,77 +2588,77 @@
       <c r="C71" s="63"/>
       <c r="D71" s="50"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="94" t="s">
+      <c r="C72" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="25"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="94" t="s">
+      <c r="C74" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C75" s="62"/>
       <c r="D75" s="47"/>
     </row>
     <row r="76" spans="1:4" ht="30">
       <c r="A76" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C76" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="25"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" outlineLevel="1">
       <c r="A77" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" s="61"/>
       <c r="D77" s="44"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" s="46" t="s">
         <v>49</v>
@@ -2600,79 +2668,79 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C79" s="94" t="s">
+      <c r="C79" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="25"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="94" t="s">
-        <v>67</v>
+      <c r="C80" s="72" t="s">
+        <v>65</v>
       </c>
       <c r="D80" s="25"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:4">
       <c r="A81" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C81" s="95" t="s">
-        <v>67</v>
+      <c r="C81" s="73" t="s">
+        <v>65</v>
       </c>
       <c r="D81" s="25"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:4">
       <c r="A82" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="94" t="s">
+      <c r="C82" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="25"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:4">
       <c r="A83" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="25"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:4">
       <c r="A84" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D84" s="25"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:4">
       <c r="A85" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B85" s="46" t="s">
         <v>50</v>
@@ -2680,21 +2748,21 @@
       <c r="C85" s="62"/>
       <c r="D85" s="47"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:4">
       <c r="A86" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="94" t="s">
+      <c r="C86" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="25"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:4">
       <c r="A87" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B87" s="48" t="s">
         <v>42</v>
@@ -2702,195 +2770,243 @@
       <c r="C87" s="62"/>
       <c r="D87" s="47"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:4">
       <c r="A88" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B88" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="94" t="s">
+      <c r="C88" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="25"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:4">
       <c r="A89" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B89" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="25"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:4">
       <c r="A90" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="25"/>
-      <c r="J90" s="35"/>
-    </row>
-    <row r="91" spans="1:10">
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B91" s="53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C91" s="61"/>
       <c r="D91" s="44"/>
-      <c r="J91" s="35"/>
-    </row>
-    <row r="92" spans="1:10">
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="25"/>
+    </row>
+    <row r="93" spans="1:4" ht="30">
+      <c r="A93" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="72"/>
+      <c r="D93" s="25"/>
+    </row>
+    <row r="94" spans="1:4" ht="30">
+      <c r="A94" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="72"/>
+      <c r="D94" s="25"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="28"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="25"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="76"/>
+      <c r="D96" s="25"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="61"/>
+      <c r="D97" s="44"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="94" t="s">
+      <c r="B98" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D92" s="25"/>
-      <c r="J92" s="35"/>
-    </row>
-    <row r="93" spans="1:10" ht="30">
-      <c r="A93" s="51"/>
-      <c r="B93" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" s="98"/>
-      <c r="D93" s="25"/>
-      <c r="J93" s="35"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B94" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="61"/>
-      <c r="D94" s="44"/>
-      <c r="J94" s="35"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="D95" s="25"/>
-      <c r="J95" s="35"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="44"/>
-      <c r="J96" s="35"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="51"/>
-      <c r="B97" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D97" s="25"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="F98" s="35"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="F99" s="35"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100"/>
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101"/>
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="D98" s="25"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="72"/>
+      <c r="D99" s="25"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="100"/>
+      <c r="D100" s="44"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="28"/>
+      <c r="B101" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="72"/>
+      <c r="D101" s="25"/>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102"/>
       <c r="B102"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="J102" s="35"/>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103"/>
       <c r="B103"/>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="J103" s="35"/>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104"/>
       <c r="B104"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="J104" s="35"/>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105"/>
       <c r="B105"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="J105" s="35"/>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106"/>
       <c r="B106"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="J106" s="35"/>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107"/>
       <c r="B107"/>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="J107" s="35"/>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108"/>
       <c r="B108"/>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="J108" s="35"/>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109"/>
       <c r="B109"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="J109" s="35"/>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110"/>
       <c r="B110"/>
+      <c r="J110" s="35"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="J111" s="35"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="J112" s="35"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="J113" s="35"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114"/>
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="F115" s="35"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="F116" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1"/>
-    <hyperlink ref="C18" r:id="rId2"/>
-    <hyperlink ref="C52" r:id="rId3"/>
-    <hyperlink ref="C55" r:id="rId4"/>
-    <hyperlink ref="C51" r:id="rId5"/>
-    <hyperlink ref="C61" r:id="rId6"/>
-    <hyperlink ref="C53" r:id="rId7" display="ОК"/>
-    <hyperlink ref="C68" r:id="rId8"/>
-    <hyperlink ref="C64" r:id="rId9" display=" OK"/>
-    <hyperlink ref="C49" r:id="rId10"/>
-    <hyperlink ref="C50" r:id="rId11"/>
-    <hyperlink ref="C48" r:id="rId12" display=" OK"/>
-    <hyperlink ref="C97" r:id="rId13"/>
+    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C52" r:id="rId2"/>
+    <hyperlink ref="C55" r:id="rId3"/>
+    <hyperlink ref="C51" r:id="rId4"/>
+    <hyperlink ref="C61" r:id="rId5"/>
+    <hyperlink ref="C53" r:id="rId6" display="ОК"/>
+    <hyperlink ref="C68" r:id="rId7"/>
+    <hyperlink ref="C64" r:id="rId8" display=" OK"/>
+    <hyperlink ref="C49" r:id="rId9"/>
+    <hyperlink ref="C50" r:id="rId10"/>
+    <hyperlink ref="C48" r:id="rId11" display=" OK"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14" display="https://github.com/vliplianina/team2b/issues/76"/>
+    <hyperlink ref="C13" r:id="rId15"/>
+    <hyperlink ref="C23" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="193">
   <si>
     <t>N/A</t>
   </si>
@@ -565,6 +565,45 @@
   </si>
   <si>
     <t>2.9</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>1.8.3</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
+  </si>
+  <si>
+    <t>1.9.2</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1243,38 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1214,39 +1283,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,10 +1301,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1615,20 +1654,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1637,107 +1676,107 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
       <c r="A14" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1769,11 +1808,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1782,6 +1816,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1792,13 +1831,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1815,18 +1854,18 @@
         <v>36</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="96"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -2045,7 +2084,7 @@
       <c r="B22" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="25"/>
@@ -2073,7 +2112,9 @@
       <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="36"/>
+      <c r="A25" s="36" t="s">
+        <v>180</v>
+      </c>
       <c r="B25" s="37" t="s">
         <v>176</v>
       </c>
@@ -2084,7 +2125,7 @@
     </row>
     <row r="26" spans="1:4" ht="30">
       <c r="A26" s="36" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B26" s="37" t="s">
         <v>155</v>
@@ -2096,7 +2137,7 @@
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="36" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>169</v>
@@ -2117,31 +2158,37 @@
       <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="51"/>
+      <c r="A29" s="51" t="s">
+        <v>183</v>
+      </c>
       <c r="B29" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="30">
-      <c r="A30" s="51"/>
+      <c r="A30" s="51" t="s">
+        <v>184</v>
+      </c>
       <c r="B30" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="51"/>
+      <c r="A31" s="51" t="s">
+        <v>185</v>
+      </c>
       <c r="B31" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="25"/>
@@ -2157,31 +2204,37 @@
       <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="51"/>
+      <c r="A33" s="51" t="s">
+        <v>186</v>
+      </c>
       <c r="B33" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="51"/>
+      <c r="A34" s="51" t="s">
+        <v>187</v>
+      </c>
       <c r="B34" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="99" t="s">
+      <c r="C34" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" ht="30">
-      <c r="A35" s="51"/>
+      <c r="A35" s="51" t="s">
+        <v>188</v>
+      </c>
       <c r="B35" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="25"/>
@@ -2197,31 +2250,37 @@
       <c r="D36" s="44"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="51"/>
+      <c r="A37" s="51" t="s">
+        <v>189</v>
+      </c>
       <c r="B37" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:4" ht="30">
-      <c r="A38" s="51"/>
+      <c r="A38" s="51" t="s">
+        <v>190</v>
+      </c>
       <c r="B38" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" ht="30">
-      <c r="A39" s="51"/>
+      <c r="A39" s="51" t="s">
+        <v>191</v>
+      </c>
       <c r="B39" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="99" t="s">
+      <c r="C39" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="25"/>
@@ -2425,8 +2484,8 @@
       <c r="B57" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="72" t="s">
-        <v>28</v>
+      <c r="C57" s="100" t="s">
+        <v>1</v>
       </c>
       <c r="D57" s="25"/>
     </row>
@@ -2835,7 +2894,9 @@
       <c r="B93" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="72"/>
+      <c r="C93" s="72" t="s">
+        <v>28</v>
+      </c>
       <c r="D93" s="25"/>
     </row>
     <row r="94" spans="1:4" ht="30">
@@ -2845,89 +2906,94 @@
       <c r="B94" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="72"/>
+      <c r="C94" s="72" t="s">
+        <v>28</v>
+      </c>
       <c r="D94" s="25"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="28"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="72"/>
+      <c r="A95" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="72" t="s">
+        <v>51</v>
+      </c>
       <c r="D95" s="25"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="C96" s="76"/>
-      <c r="D96" s="25"/>
+      <c r="A96" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="61"/>
+      <c r="D96" s="44"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="61"/>
-      <c r="D97" s="44"/>
+      <c r="A97" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="25"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="28" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C98" s="72" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D98" s="25"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B99" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="72"/>
-      <c r="D99" s="25"/>
+      <c r="A99" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" s="77"/>
+      <c r="D99" s="44"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B100" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="100"/>
-      <c r="D100" s="44"/>
+      <c r="A100" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="25"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="28"/>
-      <c r="B101" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="72"/>
-      <c r="D101" s="25"/>
+      <c r="A101"/>
+      <c r="B101"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102"/>
       <c r="B102"/>
-      <c r="J102" s="35"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103"/>
       <c r="B103"/>
-      <c r="J103" s="35"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="J104" s="35"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105"/>
@@ -2977,12 +3043,22 @@
     <row r="114" spans="1:10">
       <c r="A114"/>
       <c r="B114"/>
+      <c r="J114" s="35"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="F115" s="35"/>
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="J115" s="35"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="F116" s="35"/>
+      <c r="A116"/>
+      <c r="J116" s="35"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="F118" s="35"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="F119" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3005,8 +3081,10 @@
     <hyperlink ref="C14" r:id="rId14" display="https://github.com/vliplianina/team2b/issues/76"/>
     <hyperlink ref="C13" r:id="rId15"/>
     <hyperlink ref="C23" r:id="rId16"/>
+    <hyperlink ref="C57" r:id="rId17"/>
+    <hyperlink ref="C100" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
   <si>
     <t>N/A</t>
   </si>
@@ -219,12 +219,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>max кол-во символов (10)</t>
-  </si>
-  <si>
-    <t>max кол-во символов (1000)</t>
   </si>
   <si>
     <t>попытка переполнения поля, например, 2000 символа</t>
@@ -1249,32 +1243,8 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1283,12 +1253,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,9 +1296,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,20 +1648,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1676,107 +1670,107 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1797,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -1808,6 +1802,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1816,11 +1815,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1834,10 +1828,10 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1854,18 +1848,18 @@
         <v>36</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="97"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -1896,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="72" t="s">
         <v>51</v>
@@ -1908,7 +1902,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="44"/>
@@ -1918,7 +1912,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="72" t="s">
         <v>51</v>
@@ -1927,10 +1921,10 @@
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="72" t="s">
         <v>51</v>
@@ -1940,7 +1934,7 @@
     <row r="9" spans="1:4" ht="30">
       <c r="A9" s="28"/>
       <c r="B9" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="72" t="s">
         <v>51</v>
@@ -1949,7 +1943,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>55</v>
@@ -1959,10 +1953,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>51</v>
@@ -1971,10 +1965,10 @@
     </row>
     <row r="12" spans="1:4" ht="30">
       <c r="A12" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>51</v>
@@ -1984,7 +1978,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="28"/>
       <c r="B13" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>1</v>
@@ -1994,7 +1988,7 @@
     <row r="14" spans="1:4" ht="30">
       <c r="A14" s="28"/>
       <c r="B14" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>1</v>
@@ -2004,7 +1998,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="28"/>
       <c r="B15" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="69" t="s">
         <v>1</v>
@@ -2014,7 +2008,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="28"/>
       <c r="B16" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>1</v>
@@ -2026,7 +2020,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="44"/>
@@ -2036,7 +2030,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="56" t="s">
         <v>51</v>
@@ -2045,10 +2039,10 @@
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="56" t="s">
         <v>51</v>
@@ -2070,7 +2064,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="69" t="s">
         <v>1</v>
@@ -2079,10 +2073,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" s="76" t="s">
         <v>51</v>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>45</v>
@@ -2113,10 +2107,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="72" t="s">
         <v>51</v>
@@ -2125,10 +2119,10 @@
     </row>
     <row r="26" spans="1:4" ht="30">
       <c r="A26" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="72" t="s">
         <v>28</v>
@@ -2137,10 +2131,10 @@
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>51</v>
@@ -2149,7 +2143,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" s="53" t="s">
         <v>43</v>
@@ -2159,10 +2153,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>51</v>
@@ -2171,10 +2165,10 @@
     </row>
     <row r="30" spans="1:4" ht="30">
       <c r="A30" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" s="76" t="s">
         <v>51</v>
@@ -2183,10 +2177,10 @@
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C31" s="76" t="s">
         <v>51</v>
@@ -2195,20 +2189,20 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="76" t="s">
         <v>51</v>
@@ -2217,10 +2211,10 @@
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="76" t="s">
         <v>51</v>
@@ -2229,10 +2223,10 @@
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C35" s="76" t="s">
         <v>51</v>
@@ -2241,7 +2235,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B36" s="53" t="s">
         <v>60</v>
@@ -2251,10 +2245,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C37" s="76" t="s">
         <v>51</v>
@@ -2263,10 +2257,10 @@
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" s="76" t="s">
         <v>51</v>
@@ -2275,10 +2269,10 @@
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C39" s="76" t="s">
         <v>51</v>
@@ -2287,20 +2281,20 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="66"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="72" t="s">
         <v>51</v>
@@ -2309,7 +2303,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" s="43" t="s">
         <v>45</v>
@@ -2319,7 +2313,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>46</v>
@@ -2331,7 +2325,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>47</v>
@@ -2343,7 +2337,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="37" t="s">
         <v>64</v>
@@ -2355,7 +2349,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" s="43" t="s">
         <v>43</v>
@@ -2365,7 +2359,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>49</v>
@@ -2375,7 +2369,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>33</v>
@@ -2387,7 +2381,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>34</v>
@@ -2399,7 +2393,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>35</v>
@@ -2411,22 +2405,22 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C52" s="70" t="s">
         <v>1</v>
@@ -2435,10 +2429,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C53" s="71" t="s">
         <v>1</v>
@@ -2447,7 +2441,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>50</v>
@@ -2457,19 +2451,19 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56" s="48" t="s">
         <v>42</v>
@@ -2479,19 +2473,19 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="100" t="s">
+      <c r="C57" s="78" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" s="34" t="s">
         <v>41</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B59" s="34" t="s">
         <v>39</v>
@@ -2515,7 +2509,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="59" t="s">
         <v>64</v>
@@ -2525,19 +2519,19 @@
     </row>
     <row r="61" spans="1:4" ht="30">
       <c r="A61" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="25"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>44</v>
@@ -2547,7 +2541,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" s="46" t="s">
         <v>49</v>
@@ -2557,7 +2551,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>33</v>
@@ -2569,7 +2563,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>34</v>
@@ -2581,7 +2575,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>35</v>
@@ -2593,7 +2587,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>52</v>
@@ -2605,10 +2599,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="C68" s="70" t="s">
         <v>1</v>
@@ -2617,7 +2611,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" s="46" t="s">
         <v>50</v>
@@ -2627,7 +2621,7 @@
     </row>
     <row r="70" spans="1:4" outlineLevel="1">
       <c r="A70" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>38</v>
@@ -2639,7 +2633,7 @@
     </row>
     <row r="71" spans="1:4" outlineLevel="1">
       <c r="A71" s="57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B71" s="58" t="s">
         <v>42</v>
@@ -2649,7 +2643,7 @@
     </row>
     <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>40</v>
@@ -2661,7 +2655,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>41</v>
@@ -2673,7 +2667,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>39</v>
@@ -2685,7 +2679,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" s="59" t="s">
         <v>64</v>
@@ -2695,10 +2689,10 @@
     </row>
     <row r="76" spans="1:4" ht="30">
       <c r="A76" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C76" s="72" t="s">
         <v>28</v>
@@ -2707,7 +2701,7 @@
     </row>
     <row r="77" spans="1:4" outlineLevel="1">
       <c r="A77" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B77" s="53" t="s">
         <v>60</v>
@@ -2717,7 +2711,7 @@
     </row>
     <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="46" t="s">
         <v>49</v>
@@ -2727,7 +2721,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>33</v>
@@ -2739,7 +2733,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>34</v>
@@ -2751,7 +2745,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>48</v>
@@ -2763,7 +2757,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>35</v>
@@ -2775,7 +2769,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>52</v>
@@ -2787,10 +2781,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="C84" s="74" t="s">
         <v>51</v>
@@ -2799,7 +2793,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B85" s="46" t="s">
         <v>50</v>
@@ -2809,7 +2803,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>38</v>
@@ -2821,7 +2815,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" s="48" t="s">
         <v>42</v>
@@ -2831,7 +2825,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" s="34" t="s">
         <v>40</v>
@@ -2843,7 +2837,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B89" s="49" t="s">
         <v>41</v>
@@ -2855,10 +2849,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C90" s="72" t="s">
         <v>28</v>
@@ -2867,20 +2861,20 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C91" s="61"/>
       <c r="D91" s="44"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C92" s="72" t="s">
         <v>51</v>
@@ -2889,10 +2883,10 @@
     </row>
     <row r="93" spans="1:4" ht="30">
       <c r="A93" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C93" s="72" t="s">
         <v>28</v>
@@ -2901,10 +2895,10 @@
     </row>
     <row r="94" spans="1:4" ht="30">
       <c r="A94" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C94" s="72" t="s">
         <v>28</v>
@@ -2913,10 +2907,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C95" s="72" t="s">
         <v>51</v>
@@ -2925,20 +2919,20 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" s="61"/>
       <c r="D96" s="44"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C97" s="72" t="s">
         <v>51</v>
@@ -2947,34 +2941,34 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C98" s="72" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D98" s="25"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B99" s="53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" s="77"/>
       <c r="D99" s="44"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C100" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="25"/>

--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="193">
   <si>
     <t>N/A</t>
   </si>
@@ -598,6 +598,12 @@
   </si>
   <si>
     <t>2.9.1</t>
+  </si>
+  <si>
+    <t>При удалении проекта, прикрепленные к нему задачи сохраняются</t>
+  </si>
+  <si>
+    <t>issue</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,8 +747,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,8 +844,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1008,6 +1027,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1018,7 +1080,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,6 +1307,33 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1253,39 +1342,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,6 +1359,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1648,20 +1734,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1670,107 +1756,107 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1802,11 +1888,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1815,6 +1896,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1825,13 +1911,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1987,188 +2073,186 @@
     </row>
     <row r="14" spans="1:4" ht="30">
       <c r="A14" s="28"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="104" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="25"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="102"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="28"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="28"/>
+      <c r="B17" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C17" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="42" t="s">
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="44"/>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="25"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="28" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C19" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="25"/>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B21" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="44"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="25"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B23" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C23" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="51" t="s">
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C24" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="42" t="s">
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B25" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="44"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="36" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B26" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C26" s="72" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="38"/>
-    </row>
-    <row r="26" spans="1:4" ht="30">
-      <c r="A26" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>28</v>
       </c>
       <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B28" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C28" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="38"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="42" t="s">
+      <c r="D28" s="38"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B29" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="44"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="51" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B30" s="52" t="s">
         <v>151</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:4" ht="30">
-      <c r="A30" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>154</v>
       </c>
       <c r="C30" s="76" t="s">
         <v>51</v>
@@ -2177,44 +2261,44 @@
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C31" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="42" t="s">
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B33" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="44"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="51" t="s">
+      <c r="C33" s="75"/>
+      <c r="D33" s="44"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B34" s="52" t="s">
         <v>151</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>154</v>
       </c>
       <c r="C34" s="76" t="s">
         <v>51</v>
@@ -2223,44 +2307,44 @@
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C35" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="25"/>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="42" t="s">
+    <row r="36" spans="1:4" ht="30">
+      <c r="A36" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B37" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="44"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="51" t="s">
+      <c r="C37" s="75"/>
+      <c r="D37" s="44"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B38" s="52" t="s">
         <v>151</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:4" ht="30">
-      <c r="A38" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>154</v>
       </c>
       <c r="C38" s="76" t="s">
         <v>51</v>
@@ -2269,66 +2353,66 @@
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C39" s="76" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="64" t="s">
+    <row r="40" spans="1:4" ht="30">
+      <c r="A40" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B41" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="51" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B42" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C42" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="54"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="42" t="s">
+      <c r="D42" s="54"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B43" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="44"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="38"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="72" t="s">
         <v>28</v>
@@ -2337,54 +2421,54 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B46" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C46" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="38"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="42" t="s">
+      <c r="D46" s="38"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B47" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="44"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="45" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="44"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B48" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="47"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="25"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>1</v>
@@ -2393,10 +2477,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="69" t="s">
         <v>1</v>
@@ -2405,102 +2489,102 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="70" t="s">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>128</v>
       </c>
       <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B54" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="C54" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="25"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="45" t="s">
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B55" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="47"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="28" t="s">
+      <c r="C55" s="62"/>
+      <c r="D55" s="47"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B56" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C56" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="25"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="45" t="s">
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B57" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="47"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="25"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="47"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="72" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>1</v>
       </c>
       <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C59" s="72" t="s">
         <v>28</v>
@@ -2508,89 +2592,89 @@
       <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B61" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="47"/>
-    </row>
-    <row r="61" spans="1:4" ht="30">
-      <c r="A61" s="28" t="s">
+      <c r="C61" s="62"/>
+      <c r="D61" s="47"/>
+    </row>
+    <row r="62" spans="1:4" ht="30">
+      <c r="A62" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B62" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="69" t="s">
+      <c r="C62" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="42" t="s">
+      <c r="D62" s="25"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B63" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="44"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="45" t="s">
+      <c r="C63" s="60"/>
+      <c r="D63" s="44"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B64" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="47"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="25"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="47"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="72" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>1</v>
       </c>
       <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="72" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C67" s="72" t="s">
         <v>28</v>
@@ -2599,66 +2683,66 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="25"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B69" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C69" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="25"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="45" t="s">
+      <c r="D69" s="25"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B70" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="47"/>
-    </row>
-    <row r="70" spans="1:4" outlineLevel="1">
-      <c r="A70" s="28" t="s">
+      <c r="C70" s="62"/>
+      <c r="D70" s="47"/>
+    </row>
+    <row r="71" spans="1:4" outlineLevel="1">
+      <c r="A71" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B71" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="72" t="s">
+      <c r="C71" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="1:4" outlineLevel="1">
-      <c r="A71" s="57" t="s">
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1">
+      <c r="A72" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B72" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="50"/>
-    </row>
-    <row r="72" spans="1:4" outlineLevel="1">
-      <c r="A72" s="28" t="s">
+      <c r="C72" s="63"/>
+      <c r="D72" s="50"/>
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1">
+      <c r="A73" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B73" s="34" t="s">
         <v>40</v>
-      </c>
-      <c r="C72" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="25"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>41</v>
       </c>
       <c r="C73" s="72" t="s">
         <v>28</v>
@@ -2667,10 +2751,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C74" s="72" t="s">
         <v>28</v>
@@ -2678,101 +2762,101 @@
       <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B76" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="47"/>
-    </row>
-    <row r="76" spans="1:4" ht="30">
-      <c r="A76" s="28" t="s">
+      <c r="C76" s="62"/>
+      <c r="D76" s="47"/>
+    </row>
+    <row r="77" spans="1:4" ht="30">
+      <c r="A77" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B77" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="72" t="s">
+      <c r="C77" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:4" outlineLevel="1">
-      <c r="A77" s="42" t="s">
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" outlineLevel="1">
+      <c r="A78" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B78" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="44"/>
-    </row>
-    <row r="78" spans="1:4" outlineLevel="1">
-      <c r="A78" s="45" t="s">
+      <c r="C78" s="61"/>
+      <c r="D78" s="44"/>
+    </row>
+    <row r="79" spans="1:4" outlineLevel="1">
+      <c r="A79" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B79" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="47"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="25"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="47"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="72" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D80" s="25"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="72" t="s">
         <v>65</v>
       </c>
       <c r="D81" s="25"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="72" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="C82" s="73" t="s">
+        <v>65</v>
       </c>
       <c r="D82" s="25"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C83" s="72" t="s">
         <v>28</v>
@@ -2781,66 +2865,66 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B85" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="74" t="s">
+      <c r="C85" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="45" t="s">
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B86" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="47"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="28" t="s">
+      <c r="C86" s="62"/>
+      <c r="D86" s="47"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B87" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="72" t="s">
+      <c r="C87" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="25"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="45" t="s">
+      <c r="D87" s="25"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="48" t="s">
+      <c r="B88" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="47"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="25"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="47"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B89" s="49" t="s">
-        <v>41</v>
+        <v>125</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="C89" s="72" t="s">
         <v>28</v>
@@ -2849,10 +2933,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C90" s="72" t="s">
         <v>28</v>
@@ -2860,91 +2944,91 @@
       <c r="D90" s="25"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="25"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B92" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="44"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="28" t="s">
+      <c r="C92" s="61"/>
+      <c r="D92" s="44"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B93" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C92" s="72" t="s">
+      <c r="C93" s="72" t="s">
         <v>51</v>
-      </c>
-      <c r="D92" s="25"/>
-    </row>
-    <row r="93" spans="1:4" ht="30">
-      <c r="A93" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="72" t="s">
-        <v>28</v>
       </c>
       <c r="D93" s="25"/>
     </row>
     <row r="94" spans="1:4" ht="30">
       <c r="A94" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="52" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>155</v>
       </c>
       <c r="C94" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="25"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="30">
       <c r="A95" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="25"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B96" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="72" t="s">
+      <c r="C96" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D95" s="25"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="42" t="s">
+      <c r="D96" s="25"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B97" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="44"/>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D97" s="25"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="44"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="28" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C98" s="72" t="s">
         <v>51</v>
@@ -2952,30 +3036,38 @@
       <c r="D98" s="25"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="25"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B100" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="77"/>
-      <c r="D99" s="44"/>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="51" t="s">
+      <c r="C100" s="77"/>
+      <c r="D100" s="44"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="52" t="s">
+      <c r="B101" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="69" t="s">
+      <c r="C101" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="25"/>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101"/>
-      <c r="B101"/>
+      <c r="D101" s="25"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102"/>
@@ -2992,7 +3084,6 @@
     <row r="105" spans="1:10">
       <c r="A105"/>
       <c r="B105"/>
-      <c r="J105" s="35"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106"/>
@@ -3046,39 +3137,45 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116"/>
+      <c r="B116"/>
       <c r="J116" s="35"/>
     </row>
-    <row r="118" spans="1:10">
-      <c r="F118" s="35"/>
+    <row r="117" spans="1:10">
+      <c r="A117"/>
+      <c r="J117" s="35"/>
     </row>
     <row r="119" spans="1:10">
       <c r="F119" s="35"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="F120" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
-    <hyperlink ref="C52" r:id="rId2"/>
-    <hyperlink ref="C55" r:id="rId3"/>
-    <hyperlink ref="C51" r:id="rId4"/>
-    <hyperlink ref="C61" r:id="rId5"/>
-    <hyperlink ref="C53" r:id="rId6" display="ОК"/>
-    <hyperlink ref="C68" r:id="rId7"/>
-    <hyperlink ref="C64" r:id="rId8" display=" OK"/>
-    <hyperlink ref="C49" r:id="rId9"/>
-    <hyperlink ref="C50" r:id="rId10"/>
-    <hyperlink ref="C48" r:id="rId11" display=" OK"/>
-    <hyperlink ref="C15" r:id="rId12"/>
-    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="C53" r:id="rId2"/>
+    <hyperlink ref="C56" r:id="rId3"/>
+    <hyperlink ref="C52" r:id="rId4"/>
+    <hyperlink ref="C62" r:id="rId5"/>
+    <hyperlink ref="C54" r:id="rId6" display="ОК"/>
+    <hyperlink ref="C69" r:id="rId7"/>
+    <hyperlink ref="C65" r:id="rId8" display=" OK"/>
+    <hyperlink ref="C50" r:id="rId9"/>
+    <hyperlink ref="C51" r:id="rId10"/>
+    <hyperlink ref="C49" r:id="rId11" display=" OK"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
     <hyperlink ref="C14" r:id="rId14" display="https://github.com/vliplianina/team2b/issues/76"/>
     <hyperlink ref="C13" r:id="rId15"/>
-    <hyperlink ref="C23" r:id="rId16"/>
-    <hyperlink ref="C57" r:id="rId17"/>
-    <hyperlink ref="C100" r:id="rId18"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C58" r:id="rId17"/>
+    <hyperlink ref="C101" r:id="rId18"/>
+    <hyperlink ref="C15" r:id="rId19" display="https://github.com/vliplianina/team2b/issues/149"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="195">
   <si>
     <t>N/A</t>
   </si>
@@ -266,9 +266,6 @@
     <t>2.2.3</t>
   </si>
   <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
     <t>2.3.1.1</t>
   </si>
   <si>
@@ -287,18 +284,9 @@
     <t>2.3.1.6</t>
   </si>
   <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
     <t>2.3.2.1</t>
   </si>
   <si>
-    <t>2.3.4</t>
-  </si>
-  <si>
-    <t>2.3.4.1</t>
-  </si>
-  <si>
     <t>2.4.1</t>
   </si>
   <si>
@@ -407,12 +395,6 @@
     <t>2.5.2.2.2</t>
   </si>
   <si>
-    <t xml:space="preserve"> ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ошибка при сохранении проекта с уже имеющимся полем "названием" </t>
-  </si>
-  <si>
     <t>2.3.2.2</t>
   </si>
   <si>
@@ -441,9 +423,6 @@
   </si>
   <si>
     <t xml:space="preserve">max кол-во символов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">min кол-во символов </t>
   </si>
   <si>
     <t>1.4.2</t>
@@ -537,15 +516,9 @@
     <t>После заполнения некорректными значениям созданный новый проект  не отображается в "Cписке проектов"</t>
   </si>
   <si>
-    <t xml:space="preserve">Текущая запись не отображается в списке проектов после нажатия кнопки "Удалить" </t>
-  </si>
-  <si>
     <t>Появление формы подтверждения, после нажатетя кнопки "Удалить"</t>
   </si>
   <si>
-    <t>Возможность удалить  &lt;2 записии за 1 раз</t>
-  </si>
-  <si>
     <t>Обновление  значений полей записи в таблице после сохранение изменений</t>
   </si>
   <si>
@@ -604,6 +577,39 @@
   </si>
   <si>
     <t>issue</t>
+  </si>
+  <si>
+    <t>Текущая запись не отображается в списке проектов после нажатия кнопки "Удалить"</t>
+  </si>
+  <si>
+    <t>Возможность удалить &lt;2 записии за 1 раз</t>
+  </si>
+  <si>
+    <t>Спец. символы пробел, [-.']</t>
+  </si>
+  <si>
+    <t>max кол-во символов (128)</t>
+  </si>
+  <si>
+    <t>min кол-во символов</t>
+  </si>
+  <si>
+    <t>Спец. символы [*], ['], ["], [?], [:], [,]</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>1.3.6</t>
+  </si>
+  <si>
+    <t>1.3.7</t>
+  </si>
+  <si>
+    <t>max кол-во символов  (10)</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,8 +760,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,8 +863,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1040,36 +1077,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1080,7 +1087,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1251,9 +1258,6 @@
     <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,9 +1288,6 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,35 +1306,8 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1342,12 +1316,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,29 +1361,68 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1734,20 +1774,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1756,107 +1796,107 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
@@ -1877,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -1888,6 +1928,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1896,11 +1941,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1913,11 +1953,11 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1927,6 +1967,7 @@
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
@@ -1934,18 +1975,18 @@
         <v>36</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="98"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
@@ -1976,9 +2017,9 @@
         <v>23</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="25"/>
@@ -1990,7 +2031,7 @@
       <c r="B6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4">
@@ -1998,127 +2039,139 @@
         <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="28"/>
+      <c r="A9" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="B9" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:4" ht="30">
       <c r="A12" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="76"/>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="56" t="s">
+      <c r="C14" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="69" t="s">
+      <c r="D14" s="76"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="28"/>
-      <c r="B14" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="104" t="s">
+      <c r="D15" s="76"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="101"/>
-      <c r="B15" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="102"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="28"/>
-      <c r="B17" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -2126,7 +2179,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C19" s="56" t="s">
         <v>51</v>
@@ -2135,10 +2188,10 @@
     </row>
     <row r="20" spans="1:4" ht="30">
       <c r="A20" s="28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C20" s="56" t="s">
         <v>51</v>
@@ -2152,7 +2205,7 @@
       <c r="B21" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="44"/>
     </row>
     <row r="22" spans="1:4">
@@ -2160,21 +2213,21 @@
         <v>57</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="68" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="51" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="25"/>
@@ -2186,204 +2239,204 @@
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="68" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="42" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="36" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="36" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4" ht="30">
       <c r="A28" s="36" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B29" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="51" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="51" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" ht="30">
       <c r="A32" s="51" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="42" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="75"/>
+        <v>142</v>
+      </c>
+      <c r="C33" s="73"/>
       <c r="D33" s="44"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="51" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="51" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="51" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="42" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B37" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="51" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="51" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="51" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="66"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="51" t="s">
@@ -2392,7 +2445,7 @@
       <c r="B42" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="54"/>
@@ -2404,7 +2457,7 @@
       <c r="B43" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="61"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:4">
@@ -2414,7 +2467,7 @@
       <c r="B44" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="38"/>
@@ -2426,7 +2479,7 @@
       <c r="B45" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="38"/>
@@ -2438,633 +2491,633 @@
       <c r="B46" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="38"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="44"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="111"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="114">
+        <v>36952</v>
+      </c>
+      <c r="B48" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="47"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="28" t="s">
+      <c r="B49" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="118"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="69" t="s">
+      <c r="B50" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="118"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="118"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="69" t="s">
+      <c r="D52" s="118"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="25"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="69" t="s">
+      <c r="D53" s="118"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="25"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="70" t="s">
+      <c r="D54" s="118"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="114">
+        <v>37317</v>
+      </c>
+      <c r="B55" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="116"/>
+      <c r="D55" s="117"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="118"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="25"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="47"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="25"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="48" t="s">
+      <c r="D57" s="118"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="47"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="34" t="s">
+      <c r="C58" s="116"/>
+      <c r="D58" s="117"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="34" t="s">
+      <c r="C59" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="118"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="34" t="s">
+      <c r="C60" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="118"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="25"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="59" t="s">
+      <c r="C61" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="118"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="114">
+        <v>38048</v>
+      </c>
+      <c r="B62" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="47"/>
-    </row>
-    <row r="62" spans="1:4" ht="30">
-      <c r="A62" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="25"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="117"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="44"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="113"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B64" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="62"/>
+      <c r="C64" s="61"/>
       <c r="D64" s="47"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C65" s="68" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="72" t="s">
+      <c r="C66" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="72" t="s">
+      <c r="C67" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="25"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B70" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="62"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="47"/>
     </row>
     <row r="71" spans="1:4" outlineLevel="1">
       <c r="A71" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="72" t="s">
+      <c r="C71" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:4" outlineLevel="1">
       <c r="A72" s="57" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B72" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="63"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="50"/>
     </row>
     <row r="73" spans="1:4" outlineLevel="1">
       <c r="A73" s="28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="72" t="s">
+      <c r="C73" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="72" t="s">
+      <c r="C74" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B75" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="72" t="s">
+      <c r="C75" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="25"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B76" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="62"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="47"/>
     </row>
     <row r="77" spans="1:4" ht="30">
       <c r="A77" s="28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="25"/>
     </row>
     <row r="78" spans="1:4" outlineLevel="1">
       <c r="A78" s="42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B78" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="61"/>
+      <c r="C78" s="60"/>
       <c r="D78" s="44"/>
     </row>
     <row r="79" spans="1:4" outlineLevel="1">
       <c r="A79" s="45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B79" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="62"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="47"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="72" t="s">
+      <c r="C80" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="25"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="70" t="s">
         <v>65</v>
       </c>
       <c r="D81" s="25"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="71" t="s">
         <v>65</v>
       </c>
       <c r="D82" s="25"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="25"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="72" t="s">
+      <c r="C84" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="25"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D85" s="25"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B86" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="62"/>
+      <c r="C86" s="61"/>
       <c r="D86" s="47"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="72" t="s">
+      <c r="C87" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="25"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B88" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="62"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="47"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B89" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="25"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B90" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="72" t="s">
+      <c r="C90" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="25"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B91" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="72" t="s">
+      <c r="C91" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="25"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B92" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="61"/>
+        <v>102</v>
+      </c>
+      <c r="C92" s="60"/>
       <c r="D92" s="44"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D93" s="25"/>
     </row>
     <row r="94" spans="1:4" ht="30">
       <c r="A94" s="28" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="25"/>
     </row>
     <row r="95" spans="1:4" ht="30">
       <c r="A95" s="28" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="25"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="28" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B96" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D96" s="25"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="61"/>
+        <v>103</v>
+      </c>
+      <c r="C97" s="60"/>
       <c r="D97" s="44"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D98" s="25"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="28" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D99" s="25"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="42" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B100" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="C100" s="77"/>
+        <v>166</v>
+      </c>
+      <c r="C100" s="75"/>
       <c r="D100" s="44"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="51" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="68" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="25"/>
@@ -3155,27 +3208,25 @@
     <mergeCell ref="C1:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1"/>
-    <hyperlink ref="C53" r:id="rId2"/>
-    <hyperlink ref="C56" r:id="rId3"/>
-    <hyperlink ref="C52" r:id="rId4"/>
-    <hyperlink ref="C62" r:id="rId5"/>
-    <hyperlink ref="C54" r:id="rId6" display="ОК"/>
-    <hyperlink ref="C69" r:id="rId7"/>
-    <hyperlink ref="C65" r:id="rId8" display=" OK"/>
-    <hyperlink ref="C50" r:id="rId9"/>
-    <hyperlink ref="C51" r:id="rId10"/>
-    <hyperlink ref="C49" r:id="rId11" display=" OK"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14" display="https://github.com/vliplianina/team2b/issues/76"/>
-    <hyperlink ref="C13" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C58" r:id="rId17"/>
-    <hyperlink ref="C101" r:id="rId18"/>
-    <hyperlink ref="C15" r:id="rId19" display="https://github.com/vliplianina/team2b/issues/149"/>
+    <hyperlink ref="C101" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId2"/>
+    <hyperlink ref="C65" r:id="rId3" display=" OK"/>
+    <hyperlink ref="C69" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6" display="https://github.com/vliplianina/team2b/issues/150"/>
+    <hyperlink ref="C15" r:id="rId7" display="https://github.com/vliplianina/team2b/issues/78"/>
+    <hyperlink ref="C16" r:id="rId8" display="https://github.com/vliplianina/team2b/issues/149"/>
+    <hyperlink ref="C17" r:id="rId9" display="https://github.com/vliplianina/team2b/issues/77"/>
+    <hyperlink ref="C52" r:id="rId10" display="https://github.com/vliplianina/team2b/issues/105"/>
+    <hyperlink ref="C53" r:id="rId11" display="https://github.com/vliplianina/team2b/issues/64"/>
+    <hyperlink ref="C54" r:id="rId12" display="https://github.com/vliplianina/team2b/issues/64"/>
+    <hyperlink ref="C56" r:id="rId13" display="https://github.com/vliplianina/team2b/issues/151"/>
+    <hyperlink ref="C57" r:id="rId14" display="https://github.com/vliplianina/team2b/issues/113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <ignoredErrors>
+    <ignoredError sqref="A99" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>